--- a/media/reference/MOT/format.xlsx
+++ b/media/reference/MOT/format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICCSADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICCSADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="4665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,75 +24,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Campaign</t>
   </si>
   <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Lead ID</t>
-  </si>
-  <si>
-    <t>Queue Name</t>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Sip</t>
   </si>
   <si>
     <t>Prefix</t>
   </si>
   <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>DID Number</t>
+  </si>
+  <si>
     <t>Call Type</t>
   </si>
   <si>
-    <t>Date Time</t>
-  </si>
-  <si>
-    <t>Extension/Phone</t>
-  </si>
-  <si>
-    <t>Agent ID</t>
-  </si>
-  <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
-    <t>Pri/Voip</t>
-  </si>
-  <si>
-    <t>Ring Time</t>
-  </si>
-  <si>
-    <t>Billsec</t>
-  </si>
-  <si>
-    <t>Total Talktime</t>
-  </si>
-  <si>
-    <t>Dialer Disposition</t>
-  </si>
-  <si>
-    <t>Hangup Code</t>
-  </si>
-  <si>
-    <t>Hangup Description</t>
-  </si>
-  <si>
-    <t>Hangup By</t>
-  </si>
-  <si>
-    <t>Call Event</t>
-  </si>
-  <si>
-    <t>CSAT Score</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Caller ID</t>
-  </si>
-  <si>
-    <t>Dialed Number</t>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Call Handling Time</t>
+  </si>
+  <si>
+    <t>Talk Time</t>
+  </si>
+  <si>
+    <t>Wrapup Duration</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>Sub Disposition</t>
+  </si>
+  <si>
+    <t>Sub Sub Disposition</t>
+  </si>
+  <si>
+    <t>Sub Sub Sub Disposition</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Crm Field-1</t>
+  </si>
+  <si>
+    <t>Crm Field-2</t>
+  </si>
+  <si>
+    <t>Crm Field-3</t>
+  </si>
+  <si>
+    <t>Crm Field-4</t>
+  </si>
+  <si>
+    <t>Crm Field-5</t>
+  </si>
+  <si>
+    <t>Crm Field-6</t>
+  </si>
+  <si>
+    <t>Crm Field-7</t>
+  </si>
+  <si>
+    <t>Crm Field-8</t>
+  </si>
+  <si>
+    <t>Crm Field-9</t>
+  </si>
+  <si>
+    <t>Crm Field-10</t>
+  </si>
+  <si>
+    <t>Crm Field-11</t>
+  </si>
+  <si>
+    <t>Crm Field-12</t>
+  </si>
+  <si>
+    <t>Crm Field-13</t>
+  </si>
+  <si>
+    <t>Crm Field-14</t>
+  </si>
+  <si>
+    <t>Crm Field-15</t>
+  </si>
+  <si>
+    <t>Crm Field-16</t>
+  </si>
+  <si>
+    <t>Crm Field-17</t>
+  </si>
+  <si>
+    <t>Crm Field-18</t>
+  </si>
+  <si>
+    <t>Crm Field-19</t>
+  </si>
+  <si>
+    <t>Crm Field-20</t>
+  </si>
+  <si>
+    <t>Crm Field-21</t>
+  </si>
+  <si>
+    <t>Crm Field-22</t>
+  </si>
+  <si>
+    <t>Crm Field-23</t>
+  </si>
+  <si>
+    <t>Crm Field-24</t>
+  </si>
+  <si>
+    <t>Crm Field-25</t>
+  </si>
+  <si>
+    <t>Crm Field-26</t>
+  </si>
+  <si>
+    <t>Crm Field-27</t>
+  </si>
+  <si>
+    <t>Crm Field-28</t>
+  </si>
+  <si>
+    <t>Crm Field-29</t>
+  </si>
+  <si>
+    <t>Crm Field-30</t>
+  </si>
+  <si>
+    <t>Crm Field-31</t>
+  </si>
+  <si>
+    <t>Crm Field-32</t>
+  </si>
+  <si>
+    <t>Crm Field-33</t>
+  </si>
+  <si>
+    <t>Crm Field-34</t>
+  </si>
+  <si>
+    <t>Crm Field-35</t>
+  </si>
+  <si>
+    <t>Crm Field-36</t>
+  </si>
+  <si>
+    <t>Crm Field-37</t>
+  </si>
+  <si>
+    <t>Crm Field-38</t>
+  </si>
+  <si>
+    <t>Crm Field-39</t>
+  </si>
+  <si>
+    <t>Crm Field-40</t>
+  </si>
+  <si>
+    <t>Crm Field-41</t>
+  </si>
+  <si>
+    <t>Crm Field-42</t>
+  </si>
+  <si>
+    <t>Crm Field-43</t>
+  </si>
+  <si>
+    <t>Crm Field-44</t>
+  </si>
+  <si>
+    <t>Crm Field-45</t>
+  </si>
+  <si>
+    <t>Crm Field-46</t>
+  </si>
+  <si>
+    <t>Crm Field-47</t>
+  </si>
+  <si>
+    <t>Crm Field-48</t>
+  </si>
+  <si>
+    <t>Crm Field-49</t>
+  </si>
+  <si>
+    <t>Crm Field-50</t>
   </si>
 </sst>
 </file>
@@ -128,11 +269,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,132 +551,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:BR1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1"/>
-    <col min="30" max="30" width="10" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" customWidth="1"/>
-    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="70" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
